--- a/Code/Results/Cases/Case_2_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_137/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.123959448473499</v>
+        <v>3.771066983274522</v>
       </c>
       <c r="C2">
-        <v>1.033563828532465</v>
+        <v>0.3361660953564751</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01180996007221735</v>
+        <v>0.03321628844258595</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0007970384077400386</v>
+        <v>0.002571959802743406</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3958751923340316</v>
+        <v>0.2990263889427922</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.801027456776836</v>
+        <v>2.468959526799054</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.314194353174742</v>
+        <v>3.594768509474932</v>
       </c>
       <c r="C3">
-        <v>0.8832386620624106</v>
+        <v>0.2984997570538326</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01170814647130958</v>
+        <v>0.03328475959947741</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008101640327665267</v>
+        <v>0.002579468247451078</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3462578305670547</v>
+        <v>0.2889001911562303</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.784118735314593</v>
+        <v>2.464568571956477</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.832507496898927</v>
+        <v>3.489133723556677</v>
       </c>
       <c r="C4">
-        <v>0.7935672869850521</v>
+        <v>0.27553834206185</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01165604983329627</v>
+        <v>0.03333117381129969</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008183604992566386</v>
+        <v>0.002584311675389132</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3167794066313405</v>
+        <v>0.2828837499548769</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.776912938348147</v>
+        <v>2.4625113969457</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.639556746349854</v>
+        <v>3.446736087075465</v>
       </c>
       <c r="C5">
-        <v>0.7575786109757985</v>
+        <v>0.2662213620997989</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01163715836259582</v>
+        <v>0.03335118798883097</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008217399403637166</v>
+        <v>0.002586344293438082</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3049809104565071</v>
+        <v>0.2804821174034799</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.774695641846009</v>
+        <v>2.46183206363439</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.607704087501929</v>
+        <v>3.439734991340799</v>
       </c>
       <c r="C6">
-        <v>0.7516332246289892</v>
+        <v>0.264676649635021</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0116341552994238</v>
+        <v>0.03335457778203021</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.000822303598007279</v>
+        <v>0.002586685371374403</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3030338004385413</v>
+        <v>0.2800863421199296</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.77436874997764</v>
+        <v>2.461728814376144</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.829892460708265</v>
+        <v>3.488559314889358</v>
       </c>
       <c r="C7">
-        <v>0.7930798243596939</v>
+        <v>0.2754125303844148</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01165578592748773</v>
+        <v>0.0333314392748113</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0008184059104852093</v>
+        <v>0.002584338849173992</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3166194626082017</v>
+        <v>0.2828511583645223</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.77688022155256</v>
+        <v>2.462501593698804</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.8411729821309</v>
+        <v>3.709732155055917</v>
       </c>
       <c r="C8">
-        <v>0.9811166291333961</v>
+        <v>0.3231432582295497</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01177250824886356</v>
+        <v>0.03323899000093489</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008015387056194151</v>
+        <v>0.00257450045566987</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3785405143373453</v>
+        <v>0.2954928642716936</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.794487008635826</v>
+        <v>2.467311909887641</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.977032582760046</v>
+        <v>4.164565665535065</v>
       </c>
       <c r="C9">
-        <v>1.376453927368743</v>
+        <v>0.4181425144161039</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01209973948525778</v>
+        <v>0.03309237986937785</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.0007692986538222475</v>
+        <v>0.002557046891110474</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5095909815449602</v>
+        <v>0.3219009552057628</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.858418934055919</v>
+        <v>2.481891618696068</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.689410025445</v>
+        <v>4.512176023535972</v>
       </c>
       <c r="C10">
-        <v>1.692859612223458</v>
+        <v>0.4889150223187357</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01242827366510513</v>
+        <v>0.03300580517535523</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.000745697033986413</v>
+        <v>0.002545329778528695</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6147572550923428</v>
+        <v>0.3423228835441563</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.930400334187851</v>
+        <v>2.495851001080979</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.51396926686118</v>
+        <v>4.673361555488896</v>
       </c>
       <c r="C11">
-        <v>1.845272833358308</v>
+        <v>0.5213509545818056</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01260570070142641</v>
+        <v>0.03297101287605519</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007348562492349967</v>
+        <v>0.002540236211645119</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6653974124959632</v>
+        <v>0.3518424414940711</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.970628972685688</v>
+        <v>2.50293098909043</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.83432063959697</v>
+        <v>4.734847788592333</v>
       </c>
       <c r="C12">
-        <v>1.904514318591623</v>
+        <v>0.5336704407811226</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0126779276600808</v>
+        <v>0.03295849851541321</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007307230121112279</v>
+        <v>0.002538341177512171</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6850691260493704</v>
+        <v>0.3554808465803916</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.987160183779025</v>
+        <v>2.505718923020112</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.76493788559333</v>
+        <v>4.721585517615949</v>
       </c>
       <c r="C13">
-        <v>1.891682047137124</v>
+        <v>0.531015553955001</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01266212871603978</v>
+        <v>0.03296116431050011</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007316146685415513</v>
+        <v>0.00253874780813379</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6808087252725556</v>
+        <v>0.3546957496550789</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.98353808972675</v>
+        <v>2.50511370588211</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.54015204788777</v>
+        <v>4.678411016485597</v>
       </c>
       <c r="C14">
-        <v>1.8501140615233</v>
+        <v>0.5223637387990152</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01261153496648637</v>
+        <v>0.03296997006625624</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.000734516853697076</v>
+        <v>0.002540079630215503</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6670052789234688</v>
+        <v>0.3521410995710852</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.971961545742118</v>
+        <v>2.503158200441931</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.40357252712056</v>
+        <v>4.652024112479012</v>
       </c>
       <c r="C15">
-        <v>1.824861550017147</v>
+        <v>0.5170690927885175</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01258123632909491</v>
+        <v>0.03297544991130397</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.000736290430535432</v>
+        <v>0.002540899803338054</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6586179040616145</v>
+        <v>0.3505806890806724</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.965047009367652</v>
+        <v>2.501974376407588</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.636565311875074</v>
+        <v>4.501704454584683</v>
       </c>
       <c r="C16">
-        <v>1.683094266209594</v>
+        <v>0.4868002826630686</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01241732173985866</v>
+        <v>0.03300817135967349</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007464023556358525</v>
+        <v>0.002545667396425871</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6115116003728502</v>
+        <v>0.341705423291998</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.927939673381729</v>
+        <v>2.495403158735257</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.178706127319174</v>
+        <v>4.410277460376392</v>
       </c>
       <c r="C17">
-        <v>1.598492832622469</v>
+        <v>0.4682945416823827</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01232456744863741</v>
+        <v>0.03302942111039298</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007525705781209977</v>
+        <v>0.002548652594003702</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5833901823539662</v>
+        <v>0.3363199078323902</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.907234539942522</v>
+        <v>2.491560226775647</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.919537913766817</v>
+        <v>4.357978128082891</v>
       </c>
       <c r="C18">
-        <v>1.550608403173783</v>
+        <v>0.4576731046798272</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01227377576479727</v>
+        <v>0.03304207548558313</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007561094930235245</v>
+        <v>0.002550391884953488</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5674723738312366</v>
+        <v>0.3332438715229529</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.896014106877345</v>
+        <v>2.489418447090571</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.832464223918919</v>
+        <v>4.340319494165556</v>
       </c>
       <c r="C19">
-        <v>1.534520631664975</v>
+        <v>0.4540806850928902</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01225699146698056</v>
+        <v>0.03304643423571751</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007573065345911829</v>
+        <v>0.002550984613844955</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.562124497463401</v>
+        <v>0.332206066577271</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.892327383331406</v>
+        <v>2.488704995784076</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.227003242186811</v>
+        <v>4.419980243789723</v>
       </c>
       <c r="C20">
-        <v>1.607416482788381</v>
+        <v>0.4702621583793416</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01233417008734539</v>
+        <v>0.03302711431589622</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0007519149651304271</v>
+        <v>0.002548332509759537</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5863565617170394</v>
+        <v>0.3368909688206116</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.909365924373702</v>
+        <v>2.491962202345178</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.60594282140255</v>
+        <v>4.691080158870591</v>
       </c>
       <c r="C21">
-        <v>1.862279358262754</v>
+        <v>0.5249039741875094</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01262624921490785</v>
+        <v>0.03296736566521874</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007336652929710139</v>
+        <v>0.00253968752660219</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6710453934898482</v>
+        <v>0.352890547091917</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.97532461744359</v>
+        <v>2.503729662938866</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.55543328966257</v>
+        <v>4.870879911006568</v>
       </c>
       <c r="C22">
-        <v>2.03794221732079</v>
+        <v>0.5608304617119302</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01284722373866787</v>
+        <v>0.03293216806414989</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007215659835033694</v>
+        <v>0.002534234368981376</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.729342019740173</v>
+        <v>0.363543047174204</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.026139406592677</v>
+        <v>2.51204438011095</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.04364004420279</v>
+        <v>4.774674492828694</v>
       </c>
       <c r="C23">
-        <v>1.943233366190839</v>
+        <v>0.5416354753201063</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01272611260342682</v>
+        <v>0.03295060104239744</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0007280445356670268</v>
+        <v>0.002537126888798235</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6979216308151166</v>
+        <v>0.3578395013406492</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.99822565544892</v>
+        <v>2.507548909400782</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.20515557921965</v>
+        <v>4.415592796101464</v>
       </c>
       <c r="C24">
-        <v>1.603379773938741</v>
+        <v>0.4693725437047078</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0123298209140017</v>
+        <v>0.03302815585462437</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007522113895266896</v>
+        <v>0.002548477148007804</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5850146909653233</v>
+        <v>0.3366327293695832</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.908400213366974</v>
+        <v>2.491780258862548</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.378257591633542</v>
+        <v>4.039202342520241</v>
       </c>
       <c r="C25">
-        <v>1.265762011550009</v>
+        <v>0.3922802655840201</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0119981789724799</v>
+        <v>0.03312832966858603</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007779701597187449</v>
+        <v>0.002561573202020226</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4728293309015328</v>
+        <v>0.3145802427054178</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.837322698006361</v>
+        <v>2.477385152145487</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_137/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.771066983274522</v>
+        <v>6.123959448473556</v>
       </c>
       <c r="C2">
-        <v>0.3361660953564751</v>
+        <v>1.033563828532522</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03321628844258595</v>
+        <v>0.01180996007222146</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002571959802743406</v>
+        <v>0.0007970384077413684</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2990263889427922</v>
+        <v>0.3958751923339605</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.468959526799054</v>
+        <v>1.801027456776836</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.594768509474932</v>
+        <v>5.314194353174514</v>
       </c>
       <c r="C3">
-        <v>0.2984997570538326</v>
+        <v>0.8832386620626664</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03328475959947741</v>
+        <v>0.01170814647131591</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002579468247451078</v>
+        <v>0.0008101640328271978</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2889001911562303</v>
+        <v>0.3462578305669695</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.464568571956477</v>
+        <v>1.784118735314593</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.489133723556677</v>
+        <v>4.832507496899041</v>
       </c>
       <c r="C4">
-        <v>0.27553834206185</v>
+        <v>0.7935672869850521</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03333117381129969</v>
+        <v>0.01165604983325985</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002584311675389132</v>
+        <v>0.0008183604992542133</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2828837499548769</v>
+        <v>0.3167794066313547</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.4625113969457</v>
+        <v>1.776912938348119</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.446736087075465</v>
+        <v>4.639556746349683</v>
       </c>
       <c r="C5">
-        <v>0.2662213620997989</v>
+        <v>0.7575786109757985</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03335118798883097</v>
+        <v>0.01163715836251256</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002586344293438082</v>
+        <v>0.0008217399403602236</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2804821174034799</v>
+        <v>0.304980910456436</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.46183206363439</v>
+        <v>1.774695641846037</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.439734991340799</v>
+        <v>4.607704087501872</v>
       </c>
       <c r="C6">
-        <v>0.264676649635021</v>
+        <v>0.7516332246294439</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03335457778203021</v>
+        <v>0.01163415529939216</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002586685371374403</v>
+        <v>0.0008223035980059342</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2800863421199296</v>
+        <v>0.3030338004383566</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.461728814376144</v>
+        <v>1.774368749977626</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.488559314889358</v>
+        <v>4.829892460708038</v>
       </c>
       <c r="C7">
-        <v>0.2754125303844148</v>
+        <v>0.7930798243604329</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0333314392748113</v>
+        <v>0.01165578592748795</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002584338849173992</v>
+        <v>0.0008184059104754711</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2828511583645223</v>
+        <v>0.3166194626082017</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.462501593698804</v>
+        <v>1.77688022155246</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.709732155055917</v>
+        <v>5.841172982130843</v>
       </c>
       <c r="C8">
-        <v>0.3231432582295497</v>
+        <v>0.9811166291335951</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03323899000093489</v>
+        <v>0.01177250824888643</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.00257450045566987</v>
+        <v>0.0008015387055677908</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2954928642716936</v>
+        <v>0.3785405143371037</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.467311909887641</v>
+        <v>1.794487008635826</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.164565665535065</v>
+        <v>7.977032582759648</v>
       </c>
       <c r="C9">
-        <v>0.4181425144161039</v>
+        <v>1.376453927368345</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03309237986937785</v>
+        <v>0.01209973948522869</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002557046891110474</v>
+        <v>0.0007692986537445049</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3219009552057628</v>
+        <v>0.5095909815451023</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.481891618696068</v>
+        <v>1.858418934055948</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.512176023535972</v>
+        <v>9.689410025445</v>
       </c>
       <c r="C10">
-        <v>0.4889150223187357</v>
+        <v>1.692859612223856</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03300580517535523</v>
+        <v>0.01242827366515487</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>0.002545329778528695</v>
+        <v>0.0007456970338779228</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3423228835441563</v>
+        <v>0.6147572550924991</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.495851001080979</v>
+        <v>1.930400334187851</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.673361555488896</v>
+        <v>10.51396926686107</v>
       </c>
       <c r="C11">
-        <v>0.5213509545818056</v>
+        <v>1.845272833358536</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03297101287605519</v>
+        <v>0.01260570070143907</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002540236211645119</v>
+        <v>0.0007348562492872296</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3518424414940711</v>
+        <v>0.6653974124957358</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.50293098909043</v>
+        <v>1.970628972685716</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.734847788592333</v>
+        <v>10.83432063959719</v>
       </c>
       <c r="C12">
-        <v>0.5336704407811226</v>
+        <v>1.904514318591737</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03295849851541321</v>
+        <v>0.012677927660115</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002538341177512171</v>
+        <v>0.0007307230121598466</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3554808465803916</v>
+        <v>0.6850691260495978</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.505718923020112</v>
+        <v>1.987160183779025</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.721585517615949</v>
+        <v>10.76493788559333</v>
       </c>
       <c r="C13">
-        <v>0.531015553955001</v>
+        <v>1.891682047137124</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03296116431050011</v>
+        <v>0.01266212871609618</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.00253874780813379</v>
+        <v>0.0007316146686303692</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3546957496550789</v>
+        <v>0.6808087252727262</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.50511370588211</v>
+        <v>1.983538089726778</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.678411016485597</v>
+        <v>10.54015204788766</v>
       </c>
       <c r="C14">
-        <v>0.5223637387990152</v>
+        <v>1.850114061523811</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03296997006625624</v>
+        <v>0.01261153496651501</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002540079630215503</v>
+        <v>0.0007345168538741564</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3521410995710852</v>
+        <v>0.6670052789235967</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.503158200441931</v>
+        <v>1.971961545742147</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.652024112479012</v>
+        <v>10.40357252712067</v>
       </c>
       <c r="C15">
-        <v>0.5170690927885175</v>
+        <v>1.824861550017147</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03297544991130397</v>
+        <v>0.01258123632909491</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002540899803338054</v>
+        <v>0.0007362904306821295</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3505806890806724</v>
+        <v>0.6586179040615008</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.501974376407588</v>
+        <v>1.96504700936768</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.501704454584683</v>
+        <v>9.636565311874847</v>
       </c>
       <c r="C16">
-        <v>0.4868002826630686</v>
+        <v>1.683094266209821</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03300817135967349</v>
+        <v>0.01241732173985421</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002545667396425871</v>
+        <v>0.0007464023557235357</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.341705423291998</v>
+        <v>0.6115116003729355</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.495403158735257</v>
+        <v>1.927939673381729</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.410277460376392</v>
+        <v>9.17870612731906</v>
       </c>
       <c r="C17">
-        <v>0.4682945416823827</v>
+        <v>1.598492832621901</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03302942111039298</v>
+        <v>0.01232456744863297</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002548652594003702</v>
+        <v>0.0007525705782304964</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3363199078323902</v>
+        <v>0.5833901823540373</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.491560226775647</v>
+        <v>1.907234539942522</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.357978128082891</v>
+        <v>8.919537913767044</v>
       </c>
       <c r="C18">
-        <v>0.4576731046798272</v>
+        <v>1.55060840317384</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03304207548558313</v>
+        <v>0.01227377576483635</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002550391884953488</v>
+        <v>0.0007561094930768793</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3332438715229529</v>
+        <v>0.5674723738309666</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.489418447090571</v>
+        <v>1.896014106877317</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.340319494165556</v>
+        <v>8.832464223919033</v>
       </c>
       <c r="C19">
-        <v>0.4540806850928902</v>
+        <v>1.534520631665089</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03304643423571751</v>
+        <v>0.01225699146698767</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0.002550984613844955</v>
+        <v>0.0007573065347680004</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.332206066577271</v>
+        <v>0.5621244974632589</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.488704995784076</v>
+        <v>1.892327383331377</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.419980243789723</v>
+        <v>9.227003242186925</v>
       </c>
       <c r="C20">
-        <v>0.4702621583793416</v>
+        <v>1.607416482788892</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03302711431589622</v>
+        <v>0.01233417008728566</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002548332509759537</v>
+        <v>0.0007519149651242785</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3368909688206116</v>
+        <v>0.5863565617171957</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.491962202345178</v>
+        <v>1.909365924373702</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.691080158870591</v>
+        <v>10.60594282140255</v>
       </c>
       <c r="C21">
-        <v>0.5249039741875094</v>
+        <v>1.862279358263663</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03296736566521874</v>
+        <v>0.01262624921496269</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.00253968752660219</v>
+        <v>0.0007336652929583081</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.352890547091917</v>
+        <v>0.6710453934901039</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.503729662938866</v>
+        <v>1.975324617443619</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.870879911006568</v>
+        <v>11.55543328966257</v>
       </c>
       <c r="C22">
-        <v>0.5608304617119302</v>
+        <v>2.037942217321643</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03293216806414989</v>
+        <v>0.01284722373867009</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.002534234368981376</v>
+        <v>0.0007215659835580329</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.363543047174204</v>
+        <v>0.7293420197402725</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.51204438011095</v>
+        <v>2.026139406592648</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.774674492828694</v>
+        <v>11.04364004420279</v>
       </c>
       <c r="C23">
-        <v>0.5416354753201063</v>
+        <v>1.943233366190839</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03295060104239744</v>
+        <v>0.01272611260341239</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002537126888798235</v>
+        <v>0.0007280445357667848</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3578395013406492</v>
+        <v>0.697921630815074</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.507548909400782</v>
+        <v>1.99822565544892</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.415592796101464</v>
+        <v>9.20515557921965</v>
       </c>
       <c r="C24">
-        <v>0.4693725437047078</v>
+        <v>1.603379773939025</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03302815585462437</v>
+        <v>0.01232982091398527</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
-        <v>0.002548477148007804</v>
+        <v>0.0007522113896198945</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3366327293695832</v>
+        <v>0.5850146909652949</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.491780258862548</v>
+        <v>1.908400213366974</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.039202342520241</v>
+        <v>7.378257591633485</v>
       </c>
       <c r="C25">
-        <v>0.3922802655840201</v>
+        <v>1.265762011550066</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03312832966858603</v>
+        <v>0.01199817897244948</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.002561573202020226</v>
+        <v>0.0007779701596604127</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3145802427054178</v>
+        <v>0.4728293309012201</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.477385152145487</v>
+        <v>1.837322698006304</v>
       </c>
       <c r="O25">
         <v>0</v>
